--- a/Jumbo bingo Application.xlsx
+++ b/Jumbo bingo Application.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syndicate\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\jumbobingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD76915-472D-4EB2-82FE-51421DE35192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5690B6-4AC6-4213-97D1-C241C7FE825E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Welcome page</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Front-End API Linking Expected Time(hrs)</t>
+  </si>
+  <si>
+    <t>Working on Game setup UI structure</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +857,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,13 +916,31 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="3">
+        <v>44398</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.72986111111111107</v>
+      </c>
+      <c r="E4" s="4">
+        <f>D4-C4</f>
+        <v>4.2361111111111072E-2</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -932,18 +953,20 @@
         <v>0.625</v>
       </c>
       <c r="D5" s="4">
-        <v>0.67708333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="E5" s="4">
         <f>D5-C5</f>
-        <v>5.208333333333337E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="14" t="s">
-        <v>29</v>
+      <c r="G5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/Jumbo bingo Application.xlsx
+++ b/Jumbo bingo Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\jumbobingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5690B6-4AC6-4213-97D1-C241C7FE825E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93A98A5-89D9-4CE6-A5BD-97D3933CBA51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Welcome page</t>
   </si>
@@ -149,7 +149,13 @@
     <t>Front-End API Linking Expected Time(hrs)</t>
   </si>
   <si>
-    <t>Working on Game setup UI structure</t>
+    <t xml:space="preserve">Working on Game setup UI structure </t>
+  </si>
+  <si>
+    <t>Completed the UI and dynamic interaction of the flow with javascript code(only used the static json data). DB and API not yet used</t>
+  </si>
+  <si>
+    <t>Game Setup - New Setup</t>
   </si>
 </sst>
 </file>
@@ -337,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,6 +382,13 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,20 +867,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77DB87A-7E82-4FD1-A189-0D6423E092DA}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="94.42578125" customWidth="1"/>
+    <col min="7" max="7" width="87.42578125" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -907,7 +920,7 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -915,31 +928,31 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44398</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.6875</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.72986111111111107</v>
+        <v>44399</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0.70833333333333337</v>
       </c>
       <c r="E4" s="4">
         <f>D4-C4</f>
-        <v>4.2361111111111072E-2</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -950,23 +963,23 @@
         <v>27</v>
       </c>
       <c r="C5" s="4">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="D5" s="4">
-        <v>0.6875</v>
+        <v>0.72986111111111107</v>
       </c>
       <c r="E5" s="4">
-        <f>D5-C5</f>
-        <v>6.25E-2</v>
+        <f t="shared" ref="E5:E10" si="0">D5-C5</f>
+        <v>4.2361111111111072E-2</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -980,14 +993,14 @@
         <v>0.625</v>
       </c>
       <c r="D6" s="4">
-        <v>0.67708333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="E6" s="4">
-        <f>D6-C6</f>
-        <v>5.208333333333337E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>37</v>
@@ -1004,20 +1017,20 @@
         <v>27</v>
       </c>
       <c r="C7" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="D7" s="4">
-        <v>0.625</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E7" s="4">
-        <f>D7-C7</f>
-        <v>4.166666666666663E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>28</v>
@@ -1031,17 +1044,17 @@
         <v>27</v>
       </c>
       <c r="C8" s="4">
-        <v>0.5625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D8" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E8" s="4">
-        <f>D8-C8</f>
-        <v>2.083333333333337E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>36</v>
@@ -1058,22 +1071,49 @@
         <v>27</v>
       </c>
       <c r="C9" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44398</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D10" s="4">
         <v>0.5625</v>
       </c>
-      <c r="E9" s="4">
-        <f>D9-C9</f>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1086,9 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060769B1-2A4D-4D3C-9991-CCC849D346FF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Jumbo bingo Application.xlsx
+++ b/Jumbo bingo Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\jumbobingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93A98A5-89D9-4CE6-A5BD-97D3933CBA51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F690F02E-FFAF-4581-A410-8AD8C54D152A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>Welcome page</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>Game Setup - New Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Designing &amp; structuring</t>
+  </si>
+  <si>
+    <t>Play - Game Screen</t>
+  </si>
+  <si>
+    <t>Coding the logic for number calls</t>
+  </si>
+  <si>
+    <t>Play - Game Screen-&gt;Start</t>
   </si>
 </sst>
 </file>
@@ -672,7 +684,7 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,10 +879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77DB87A-7E82-4FD1-A189-0D6423E092DA}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,82 +940,82 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="24">
-        <v>0.375</v>
+        <v>0.6875</v>
       </c>
       <c r="D4" s="24">
-        <v>0.70833333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E4" s="4">
         <f>D4-C4</f>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>42</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44398</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>44400</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="D5" s="24">
         <v>0.6875</v>
       </c>
-      <c r="D5" s="4">
-        <v>0.72986111111111107</v>
-      </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E10" si="0">D5-C5</f>
-        <v>4.2361111111111072E-2</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>40</v>
+        <f>D5-C5</f>
+        <v>0.3125</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44398</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.6875</v>
+        <v>44399</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0.70833333333333337</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <f>D6-C6</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>28</v>
@@ -1017,23 +1029,23 @@
         <v>27</v>
       </c>
       <c r="C7" s="4">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="D7" s="4">
-        <v>0.67708333333333337</v>
+        <v>0.72986111111111107</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>5.208333333333337E-2</v>
+        <f t="shared" ref="E7:E12" si="0">D7-C7</f>
+        <v>4.2361111111111072E-2</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1044,20 +1056,20 @@
         <v>27</v>
       </c>
       <c r="C8" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="D8" s="4">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>28</v>
@@ -1071,20 +1083,20 @@
         <v>27</v>
       </c>
       <c r="C9" s="4">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="D9" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>28</v>
@@ -1098,22 +1110,76 @@
         <v>27</v>
       </c>
       <c r="C10" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D10" s="4">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44398</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44398</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1126,7 +1192,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060769B1-2A4D-4D3C-9991-CCC849D346FF}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Jumbo bingo Application.xlsx
+++ b/Jumbo bingo Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\jumbobingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F690F02E-FFAF-4581-A410-8AD8C54D152A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F170FD7-3FE5-4A33-A74B-063DD5C3CA85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Welcome page</t>
   </si>
@@ -164,10 +164,16 @@
     <t>Play - Game Screen</t>
   </si>
   <si>
-    <t>Coding the logic for number calls</t>
-  </si>
-  <si>
     <t>Play - Game Screen-&gt;Start</t>
+  </si>
+  <si>
+    <t>Coding the logic for Auto number calls. Displaying number in various sections.</t>
+  </si>
+  <si>
+    <t>Play - Game Screen-&gt;Start,Pause,Audio On/OFF,Dictate</t>
+  </si>
+  <si>
+    <t>Coding the logic for Auto number calls. Displaying number in various sections. Coding the logic for pause and re-start. Adding voice to number called.</t>
   </si>
 </sst>
 </file>
@@ -355,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,6 +406,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,10 +888,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77DB87A-7E82-4FD1-A189-0D6423E092DA}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,81 +950,45 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>44400</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0.6875</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="E4" s="4">
-        <f>D4-C4</f>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>44400</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="D5" s="24">
-        <v>0.6875</v>
-      </c>
-      <c r="E5" s="4">
-        <f>D5-C5</f>
-        <v>0.3125</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44399</v>
+        <v>44401</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="24">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D6" s="24">
-        <v>0.70833333333333337</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E6" s="4">
         <f>D6-C6</f>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>42</v>
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>28</v>
@@ -1023,26 +996,26 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44398</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4">
+        <v>44400</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="24">
         <v>0.6875</v>
       </c>
-      <c r="D7" s="4">
-        <v>0.72986111111111107</v>
+      <c r="D7" s="24">
+        <v>0.72916666666666663</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" ref="E7:E12" si="0">D7-C7</f>
-        <v>4.2361111111111072E-2</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>40</v>
+        <f>D7-C7</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>29</v>
@@ -1050,53 +1023,53 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44398</v>
-      </c>
-      <c r="B8" s="6" t="s">
+        <v>44400</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="D8" s="24">
         <v>0.6875</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <f>D8-C8</f>
+        <v>0.3125</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44398</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.67708333333333337</v>
+        <v>44399</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.70833333333333337</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>5.208333333333337E-2</v>
+        <f>D9-C9</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>28</v>
@@ -1110,23 +1083,23 @@
         <v>27</v>
       </c>
       <c r="C10" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="D10" s="4">
-        <v>0.625</v>
+        <v>0.72986111111111107</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <f t="shared" ref="E10:E15" si="0">D10-C10</f>
+        <v>4.2361111111111072E-2</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1137,20 +1110,20 @@
         <v>27</v>
       </c>
       <c r="C11" s="4">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="D11" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>28</v>
@@ -1164,22 +1137,103 @@
         <v>27</v>
       </c>
       <c r="C12" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="D12" s="4">
-        <v>0.5625</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44398</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44398</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44398</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Jumbo bingo Application.xlsx
+++ b/Jumbo bingo Application.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\jumbobingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F170FD7-3FE5-4A33-A74B-063DD5C3CA85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161ECF11-E04F-4A77-9716-F533CA2E2426}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>Welcome page</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Play</t>
   </si>
   <si>
-    <t>Display</t>
-  </si>
-  <si>
     <t>Verify</t>
   </si>
   <si>
@@ -155,25 +152,146 @@
     <t>Completed the UI and dynamic interaction of the flow with javascript code(only used the static json data). DB and API not yet used</t>
   </si>
   <si>
-    <t>Game Setup - New Setup</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Designing &amp; structuring</t>
   </si>
   <si>
-    <t>Play - Game Screen</t>
-  </si>
-  <si>
-    <t>Play - Game Screen-&gt;Start</t>
-  </si>
-  <si>
     <t>Coding the logic for Auto number calls. Displaying number in various sections.</t>
   </si>
   <si>
-    <t>Play - Game Screen-&gt;Start,Pause,Audio On/OFF,Dictate</t>
-  </si>
-  <si>
     <t>Coding the logic for Auto number calls. Displaying number in various sections. Coding the logic for pause and re-start. Adding voice to number called.</t>
+  </si>
+  <si>
+    <t>Implementing API call for getMasterColors, Numbers 
+Also rectified some issues with API setup and CORS issues.</t>
+  </si>
+  <si>
+    <t>API implementation</t>
+  </si>
+  <si>
+    <t>Select Game</t>
+  </si>
+  <si>
+    <t>Designing the window for Select Game</t>
+  </si>
+  <si>
+    <t>Adding validations to the inputboxes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bingo 90 Tickets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Play - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Game Screen-&gt;Start,Pause,Audio On/OFF,Dictate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Play -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Game Screen-&gt;Start</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Play - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Game Screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Game Setup - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New Setup</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Play - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select Game</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing the window for Bingo tickets also doing validations </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">API implementation - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ticket verification</t>
+    </r>
+  </si>
+  <si>
+    <t>ticket verrification Api implimentation</t>
+  </si>
+  <si>
+    <t>Ticket verify display</t>
+  </si>
+  <si>
+    <t>adding css , row highlighting while verification</t>
   </si>
 </sst>
 </file>
@@ -238,7 +356,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +423,12 @@
         <bgColor rgb="FFD0CECE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -361,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,7 +510,6 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -399,7 +522,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -410,6 +532,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,7 +816,7 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,180 +828,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>1</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>2</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>2</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>3</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>3</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>1</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <v>1</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>1</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -888,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77DB87A-7E82-4FD1-A189-0D6423E092DA}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,28 +1030,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -941,219 +1064,273 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="3">
+        <v>44404</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3" si="0">D3-C3</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="3">
+        <v>44404</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4" si="1">D4-C4</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44404</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E12" si="2">D5-C5</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44401</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="24">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D6" s="24">
-        <v>0.67708333333333337</v>
+        <v>44404</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.58333333333333337</v>
       </c>
       <c r="E6" s="4">
-        <f>D6-C6</f>
-        <v>0.28125000000000006</v>
-      </c>
-      <c r="F6" s="27" t="s">
+        <f t="shared" si="2"/>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="25" t="s">
-        <v>48</v>
-      </c>
       <c r="H6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44400</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="24">
-        <v>0.6875</v>
-      </c>
-      <c r="D7" s="24">
+        <v>44404</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44403</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D8" s="22">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E7" s="4">
-        <f>D7-C7</f>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="E8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>44400</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="G8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="D8" s="24">
-        <v>0.6875</v>
-      </c>
-      <c r="E8" s="4">
-        <f>D8-C8</f>
-        <v>0.3125</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44399</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="D9" s="24">
-        <v>0.70833333333333337</v>
+        <v>44401</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.67708333333333337</v>
       </c>
       <c r="E9" s="4">
-        <f>D9-C9</f>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>41</v>
+        <f t="shared" si="2"/>
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44398</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4">
+        <v>44400</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="22">
         <v>0.6875</v>
       </c>
-      <c r="D10" s="4">
-        <v>0.72986111111111107</v>
+      <c r="D10" s="22">
+        <v>0.72916666666666663</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E15" si="0">D10-C10</f>
-        <v>4.2361111111111072E-2</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44398</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>44400</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.6875</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.3125</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44399</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.6875</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>44398</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>5.208333333333337E-2</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1161,25 +1338,25 @@
         <v>44398</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="D13" s="4">
-        <v>0.625</v>
+        <v>0.72986111111111107</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>2</v>
+        <f t="shared" ref="E13:E18" si="3">D13-C13</f>
+        <v>4.2361111111111072E-2</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1188,26 +1365,26 @@
         <v>44398</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="D14" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1215,30 +1392,118 @@
         <v>44398</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="3"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="4">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44398</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="3"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44398</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="3"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44398</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D18" s="4">
         <v>0.5625</v>
       </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
+      <c r="E18" s="4">
+        <f t="shared" si="3"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>28</v>
+      <c r="G18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="26">
+        <f>SUM(E5:E18)</f>
+        <v>1.834027777777778</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1258,39 +1523,39 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Jumbo bingo Application.xlsx
+++ b/Jumbo bingo Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\jumbobingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161ECF11-E04F-4A77-9716-F533CA2E2426}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1260CEE9-6B24-4CE3-939A-17ABA42B63F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t>Welcome page</t>
   </si>
@@ -292,6 +292,24 @@
   </si>
   <si>
     <t>adding css , row highlighting while verification</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">API implementation - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Login/Logout</t>
+    </r>
+  </si>
+  <si>
+    <t>Api implimentation with front end validation</t>
   </si>
 </sst>
 </file>
@@ -485,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,6 +551,8 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77DB87A-7E82-4FD1-A189-0D6423E092DA}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,84 +1084,48 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>44404</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="22">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D3" s="22">
-        <v>0.69791666666666663</v>
-      </c>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3" si="0">D3-C3</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>44404</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="22">
-        <v>0.69791666666666663</v>
-      </c>
-      <c r="D4" s="22">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" ref="E4" si="1">D4-C4</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44404</v>
+        <v>44406</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="22">
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D5" s="22">
-        <v>0.66666666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E12" si="2">D5-C5</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>28</v>
+        <f t="shared" ref="E5" si="0">D5-C5</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1152,20 +1136,20 @@
         <v>26</v>
       </c>
       <c r="C6" s="22">
-        <v>0.45833333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D6" s="22">
-        <v>0.58333333333333337</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="2"/>
-        <v>0.12500000000000006</v>
+        <f t="shared" ref="E6" si="1">D6-C6</f>
+        <v>3.125E-2</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>27</v>
@@ -1175,78 +1159,78 @@
       <c r="A7" s="3">
         <v>44404</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>26</v>
+      <c r="B7" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="C7" s="22">
-        <v>0.39583333333333331</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="D7" s="22">
-        <v>0.45833333333333331</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="2"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>55</v>
+        <f t="shared" ref="E7" si="2">D7-C7</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="22">
-        <v>0.39583333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D8" s="22">
-        <v>0.72916666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E8:E15" si="3">D8-C8</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44401</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>29</v>
+        <v>44404</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="22">
-        <v>0.39583333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D9" s="22">
-        <v>0.67708333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="2"/>
-        <v>0.28125000000000006</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>43</v>
+        <f t="shared" si="3"/>
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>27</v>
@@ -1254,80 +1238,80 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44400</v>
-      </c>
-      <c r="B10" s="24" t="s">
+        <v>44404</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44403</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="22">
-        <v>0.6875</v>
-      </c>
-      <c r="D10" s="22">
+      <c r="C11" s="22">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D11" s="22">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E10" s="4">
-        <f t="shared" si="2"/>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>44400</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0.6875</v>
-      </c>
       <c r="E11" s="4">
-        <f t="shared" si="2"/>
-        <v>0.3125</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>52</v>
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44399</v>
+        <v>44401</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="22">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D12" s="22">
-        <v>0.70833333333333337</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>53</v>
+        <f t="shared" si="3"/>
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>27</v>
@@ -1335,26 +1319,26 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44398</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4">
+        <v>44400</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="22">
         <v>0.6875</v>
       </c>
-      <c r="D13" s="4">
-        <v>0.72986111111111107</v>
+      <c r="D13" s="22">
+        <v>0.72916666666666663</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" ref="E13:E18" si="3">D13-C13</f>
-        <v>4.2361111111111072E-2</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>39</v>
+        <f t="shared" si="3"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>28</v>
@@ -1362,53 +1346,53 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44398</v>
-      </c>
-      <c r="B14" s="6" t="s">
+        <v>44400</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="C14" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="D14" s="22">
         <v>0.6875</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="3"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.3125</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44398</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.67708333333333337</v>
+        <v>44399</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0.70833333333333337</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="3"/>
-        <v>5.208333333333337E-2</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>27</v>
@@ -1422,23 +1406,23 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="D16" s="4">
-        <v>0.625</v>
+        <v>0.72986111111111107</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="3"/>
-        <v>4.166666666666663E-2</v>
+        <f t="shared" ref="E16:E21" si="4">D16-C16</f>
+        <v>4.2361111111111072E-2</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1449,20 +1433,20 @@
         <v>26</v>
       </c>
       <c r="C17" s="4">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="D17" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="3"/>
-        <v>2.083333333333337E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>27</v>
@@ -1476,17 +1460,17 @@
         <v>26</v>
       </c>
       <c r="C18" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="D18" s="4">
-        <v>0.5625</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="3"/>
-        <v>4.166666666666663E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>36</v>
@@ -1495,9 +1479,90 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="26">
-        <f>SUM(E5:E18)</f>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44398</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="4"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44398</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="4"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44398</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="4"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="26">
+        <f>SUM(E8:E21)</f>
         <v>1.834027777777778</v>
       </c>
     </row>

--- a/Jumbo bingo Application.xlsx
+++ b/Jumbo bingo Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\jumbobingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1260CEE9-6B24-4CE3-939A-17ABA42B63F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B4C36B-3161-4244-B3C8-525B3B4C2131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>Welcome page</t>
   </si>
@@ -310,6 +310,27 @@
   </si>
   <si>
     <t>Api implimentation with front end validation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">API implementation - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registration</t>
+    </r>
+  </si>
+  <si>
+    <t>User List</t>
+  </si>
+  <si>
+    <t>Link creation, window, table design and display</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77DB87A-7E82-4FD1-A189-0D6423E092DA}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,13 +1114,31 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="3">
+        <v>44406</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0.6875</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4" si="0">D4-C4</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1109,17 +1148,17 @@
         <v>29</v>
       </c>
       <c r="C5" s="22">
-        <v>0.54166666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="D5" s="22">
-        <v>0.60416666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5" si="0">D5-C5</f>
-        <v>6.25E-2</v>
+        <f t="shared" ref="E5" si="1">D5-C5</f>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G5" s="23" t="s">
         <v>61</v>
@@ -1130,26 +1169,26 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44404</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>26</v>
+        <v>44406</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="22">
-        <v>0.66666666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D6" s="22">
-        <v>0.69791666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" ref="E6" si="1">D6-C6</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>59</v>
+        <f t="shared" ref="E6" si="2">D6-C6</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>27</v>
@@ -1159,24 +1198,24 @@
       <c r="A7" s="3">
         <v>44404</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>29</v>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="22">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D7" s="22">
         <v>0.69791666666666663</v>
       </c>
-      <c r="D7" s="22">
-        <v>0.72916666666666663</v>
-      </c>
       <c r="E7" s="4">
-        <f t="shared" ref="E7" si="2">D7-C7</f>
+        <f t="shared" ref="E7" si="3">D7-C7</f>
         <v>3.125E-2</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>57</v>
+      <c r="F7" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>27</v>
@@ -1190,50 +1229,50 @@
         <v>29</v>
       </c>
       <c r="C8" s="22">
-        <v>0.58333333333333337</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="D8" s="22">
-        <v>0.66666666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" ref="E8:E15" si="3">D8-C8</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>28</v>
+        <f t="shared" ref="E8" si="4">D8-C8</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44404</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>26</v>
+      <c r="B9" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="22">
-        <v>0.45833333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D9" s="22">
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="3"/>
-        <v>0.12500000000000006</v>
+        <f t="shared" ref="E9:E16" si="5">D9-C9</f>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>54</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1244,47 +1283,47 @@
         <v>26</v>
       </c>
       <c r="C10" s="22">
-        <v>0.39583333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D10" s="22">
-        <v>0.45833333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="3"/>
-        <v>6.25E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.12500000000000006</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44403</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>29</v>
+        <v>44404</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="22">
         <v>0.39583333333333331</v>
       </c>
       <c r="D11" s="22">
-        <v>0.72916666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>27</v>
@@ -1292,7 +1331,7 @@
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44401</v>
+        <v>44403</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>29</v>
@@ -1301,128 +1340,128 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D12" s="22">
-        <v>0.67708333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="3"/>
-        <v>0.28125000000000006</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="22">
-        <v>0.6875</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D13" s="22">
-        <v>0.72916666666666663</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="3"/>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>51</v>
+        <f t="shared" si="5"/>
+        <v>0.28125000000000006</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44400</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>26</v>
+      <c r="B14" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="22">
-        <v>0.375</v>
+        <v>0.6875</v>
       </c>
       <c r="D14" s="22">
-        <v>0.6875</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="3"/>
-        <v>0.3125</v>
+        <f t="shared" si="5"/>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44399</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>29</v>
+        <v>44400</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C15" s="22">
         <v>0.375</v>
       </c>
       <c r="D15" s="22">
+        <v>0.6875</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="5"/>
+        <v>0.3125</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44399</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="D16" s="22">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E15" s="4">
-        <f t="shared" si="3"/>
+      <c r="E16" s="4">
+        <f t="shared" si="5"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F16" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>44398</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.6875</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.72986111111111107</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" ref="E16:E21" si="4">D16-C16</f>
-        <v>4.2361111111111072E-2</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1433,23 +1472,23 @@
         <v>26</v>
       </c>
       <c r="C17" s="4">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="D17" s="4">
-        <v>0.6875</v>
+        <v>0.72986111111111107</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="4"/>
-        <v>6.25E-2</v>
+        <f t="shared" ref="E17:E22" si="6">D17-C17</f>
+        <v>4.2361111111111072E-2</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1463,14 +1502,14 @@
         <v>0.625</v>
       </c>
       <c r="D18" s="4">
-        <v>0.67708333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="4"/>
-        <v>5.208333333333337E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.25E-2</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>36</v>
@@ -1487,20 +1526,20 @@
         <v>26</v>
       </c>
       <c r="C19" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="D19" s="4">
-        <v>0.625</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="4"/>
-        <v>4.166666666666663E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>27</v>
@@ -1514,17 +1553,17 @@
         <v>26</v>
       </c>
       <c r="C20" s="4">
-        <v>0.5625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D20" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="4"/>
-        <v>2.083333333333337E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>35</v>
@@ -1541,30 +1580,54 @@
         <v>26</v>
       </c>
       <c r="C21" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="D21" s="4">
-        <v>0.5625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="4"/>
-        <v>4.166666666666663E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="26">
-        <f>SUM(E8:E21)</f>
-        <v>1.834027777777778</v>
-      </c>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44398</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="6"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
